--- a/sudoku Q1.xlsx
+++ b/sudoku Q1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1940" windowWidth="16860" windowHeight="13620"/>
+    <workbookView xWindow="1480" yWindow="840" windowWidth="16860" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="149">
   <si>
     <t>0</t>
   </si>
@@ -422,7 +422,58 @@
     <t>v1</t>
   </si>
   <si>
-    <t>with constraint propagation, some randomness</t>
+    <t>part 3 fully working</t>
+  </si>
+  <si>
+    <t>file 1</t>
+  </si>
+  <si>
+    <t>file 2</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>file 3</t>
+  </si>
+  <si>
+    <t>file 4</t>
   </si>
 </sst>
 </file>
@@ -458,8 +509,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,26 +815,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:AA143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>128</v>
       </c>
       <c r="E1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C2">
         <f>SUM(B:B)</f>
         <v>13.782119999999999</v>
@@ -792,12 +846,32 @@
         <f>SUM(F:F)</f>
         <v>32.737099999999998</v>
       </c>
-      <c r="K2">
-        <f>SUM(J:J)</f>
-        <v>23.142319999999987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2">
+        <f>SUM(N:N)</f>
+        <v>10.639179999999994</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2">
+        <f>SUM(R:R)</f>
+        <v>8.7653399999999984</v>
+      </c>
+      <c r="U2" t="s">
+        <v>147</v>
+      </c>
+      <c r="W2">
+        <f>SUM(V:V)</f>
+        <v>20.380499999999998</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -816,17 +890,44 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="K3">
+      <c r="N3">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>4.0689999999999997E-2</v>
+      </c>
+      <c r="S3">
+        <v>25</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1.155E-2</v>
+      </c>
+      <c r="W3">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0.77654999999999996</v>
+      </c>
+      <c r="AA3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -845,17 +946,44 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>2.0899999999999998E-3</v>
-      </c>
-      <c r="K4">
+      <c r="N4">
+        <v>1.8699999999999999E-3</v>
+      </c>
+      <c r="O4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>3.9050000000000001E-2</v>
+      </c>
+      <c r="S4">
+        <v>25</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>8.6E-3</v>
+      </c>
+      <c r="W4">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0.51337999999999995</v>
+      </c>
+      <c r="AA4">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -874,17 +1002,44 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>3.2799999999999999E-3</v>
-      </c>
-      <c r="K5">
+      <c r="N5">
+        <v>1.73E-3</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>9.8320000000000005E-2</v>
+      </c>
+      <c r="S5">
+        <v>74</v>
+      </c>
+      <c r="U5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>1.6889999999999999E-2</v>
+      </c>
+      <c r="W5">
+        <v>14</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>1.88568</v>
+      </c>
+      <c r="AA5">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -903,17 +1058,44 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>3</v>
       </c>
-      <c r="J6">
-        <v>2.8700000000000002E-3</v>
-      </c>
-      <c r="K6">
+      <c r="N6">
+        <v>1.81E-3</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>4.1239999999999999E-2</v>
+      </c>
+      <c r="S6">
+        <v>38</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>3.9219999999999998E-2</v>
+      </c>
+      <c r="W6">
+        <v>38</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>4.2789400000000004</v>
+      </c>
+      <c r="AA6">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -932,17 +1114,44 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>4</v>
       </c>
-      <c r="J7">
-        <v>2.7899999999999999E-3</v>
-      </c>
-      <c r="K7">
+      <c r="N7">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>7.6109999999999997E-2</v>
+      </c>
+      <c r="S7">
+        <v>59</v>
+      </c>
+      <c r="U7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>5.9369999999999999E-2</v>
+      </c>
+      <c r="W7">
+        <v>59</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <v>3.7065100000000002</v>
+      </c>
+      <c r="AA7">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -961,17 +1170,44 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
+      <c r="M8" t="s">
         <v>5</v>
       </c>
-      <c r="J8">
-        <v>3.1800000000000001E-3</v>
-      </c>
-      <c r="K8">
+      <c r="N8">
+        <v>1.67E-3</v>
+      </c>
+      <c r="O8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>1.9720000000000001E-2</v>
+      </c>
+      <c r="S8">
+        <v>19</v>
+      </c>
+      <c r="U8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>1.821E-2</v>
+      </c>
+      <c r="W8">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>8.6684000000000001</v>
+      </c>
+      <c r="AA8">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -990,17 +1226,35 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
         <v>6</v>
       </c>
-      <c r="J9">
-        <v>2.97E-3</v>
-      </c>
-      <c r="K9">
+      <c r="N9">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="O9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>4.4420000000000001E-2</v>
+      </c>
+      <c r="S9">
+        <v>41</v>
+      </c>
+      <c r="U9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>4.2909999999999997E-2</v>
+      </c>
+      <c r="W9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1019,17 +1273,44 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
         <v>7</v>
       </c>
-      <c r="J10">
-        <v>2.0400000000000001E-3</v>
-      </c>
-      <c r="K10">
+      <c r="N10">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="O10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>5.7790000000000001E-2</v>
+      </c>
+      <c r="S10">
+        <v>44</v>
+      </c>
+      <c r="U10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10">
+        <v>5.9479999999999998E-2</v>
+      </c>
+      <c r="W10">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>0.97106000000000003</v>
+      </c>
+      <c r="AA10">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1048,17 +1329,44 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
         <v>8</v>
       </c>
-      <c r="J11">
-        <v>4.15E-3</v>
-      </c>
-      <c r="K11">
+      <c r="N11">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="O11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>1.38E-2</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="U11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11">
+        <v>8.4629999999999997E-2</v>
+      </c>
+      <c r="W11">
+        <v>74</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z11">
+        <v>204.38974999999999</v>
+      </c>
+      <c r="AA11">
+        <v>103860</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1077,17 +1385,44 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>9</v>
       </c>
-      <c r="J12">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="K12">
+      <c r="N12">
+        <v>1.97E-3</v>
+      </c>
+      <c r="O12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>0.16816</v>
+      </c>
+      <c r="S12">
+        <v>165</v>
+      </c>
+      <c r="U12" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12">
+        <v>1.2149999999999999E-2</v>
+      </c>
+      <c r="W12">
+        <v>16</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z12">
+        <v>31.892160000000001</v>
+      </c>
+      <c r="AA12">
+        <v>18084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1106,17 +1441,35 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>10</v>
       </c>
-      <c r="J13">
-        <v>4.2199999999999998E-3</v>
-      </c>
-      <c r="K13">
+      <c r="N13">
+        <v>2.48E-3</v>
+      </c>
+      <c r="O13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>8.3400000000000002E-3</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="U13" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>1.7059999999999999E-2</v>
+      </c>
+      <c r="W13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1135,17 +1488,35 @@
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
+      <c r="M14" t="s">
         <v>11</v>
       </c>
-      <c r="J14">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>3.1099999999999999E-3</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14">
+        <v>2.1389999999999999E-2</v>
+      </c>
+      <c r="S14">
+        <v>21</v>
+      </c>
+      <c r="U14" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14">
+        <v>1.7170000000000001E-2</v>
+      </c>
+      <c r="W14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1164,17 +1535,35 @@
       <c r="G15">
         <v>5</v>
       </c>
-      <c r="I15" t="s">
+      <c r="M15" t="s">
         <v>12</v>
       </c>
-      <c r="J15">
-        <v>3.6600000000000001E-3</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>3.3899999999999998E-3</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>6.0839999999999998E-2</v>
+      </c>
+      <c r="S15">
+        <v>48</v>
+      </c>
+      <c r="U15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15">
+        <v>1.252E-2</v>
+      </c>
+      <c r="W15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1193,17 +1582,35 @@
       <c r="G16">
         <v>12</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
         <v>13</v>
       </c>
-      <c r="J16">
-        <v>3.2499999999999999E-3</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <v>5.6699999999999997E-3</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="U16" t="s">
+        <v>13</v>
+      </c>
+      <c r="V16">
+        <v>1.507E-2</v>
+      </c>
+      <c r="W16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1222,17 +1629,35 @@
       <c r="G17">
         <v>6</v>
       </c>
-      <c r="I17" t="s">
+      <c r="M17" t="s">
         <v>14</v>
       </c>
-      <c r="J17">
-        <v>5.8399999999999997E-3</v>
-      </c>
-      <c r="K17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17">
+        <v>1.7469999999999999E-2</v>
+      </c>
+      <c r="S17">
+        <v>18</v>
+      </c>
+      <c r="U17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17">
+        <v>0.16858999999999999</v>
+      </c>
+      <c r="W17">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1251,17 +1676,35 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="I18" t="s">
+      <c r="M18" t="s">
         <v>15</v>
       </c>
-      <c r="J18">
-        <v>4.8700000000000002E-3</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <v>1.7489999999999999E-2</v>
+      </c>
+      <c r="S18">
+        <v>14</v>
+      </c>
+      <c r="U18" t="s">
+        <v>15</v>
+      </c>
+      <c r="V18">
+        <v>3.5619999999999999E-2</v>
+      </c>
+      <c r="W18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1280,17 +1723,35 @@
       <c r="G19">
         <v>87</v>
       </c>
-      <c r="I19" t="s">
+      <c r="M19" t="s">
         <v>16</v>
       </c>
-      <c r="J19">
-        <v>1.661E-2</v>
-      </c>
-      <c r="K19">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>2.3089999999999999E-2</v>
+      </c>
+      <c r="O19">
+        <v>23</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19">
+        <v>1.281E-2</v>
+      </c>
+      <c r="S19">
+        <v>16</v>
+      </c>
+      <c r="U19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19">
+        <v>3.1690000000000003E-2</v>
+      </c>
+      <c r="W19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1309,17 +1770,35 @@
       <c r="G20">
         <v>10</v>
       </c>
-      <c r="I20" t="s">
+      <c r="M20" t="s">
         <v>17</v>
       </c>
-      <c r="J20">
-        <v>5.2199999999999998E-3</v>
-      </c>
-      <c r="K20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>3.8700000000000002E-3</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20">
+        <v>1.503E-2</v>
+      </c>
+      <c r="S20">
+        <v>14</v>
+      </c>
+      <c r="U20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20">
+        <v>7.331E-2</v>
+      </c>
+      <c r="W20">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1338,17 +1817,35 @@
       <c r="G21">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
         <v>18</v>
       </c>
-      <c r="J21">
-        <v>5.4799999999999996E-3</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21">
+        <v>1.5169999999999999E-2</v>
+      </c>
+      <c r="S21">
+        <v>14</v>
+      </c>
+      <c r="U21" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21">
+        <v>1.7489999999999999E-2</v>
+      </c>
+      <c r="W21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1367,17 +1864,35 @@
       <c r="G22">
         <v>25</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M22" t="s">
         <v>19</v>
       </c>
-      <c r="J22">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="K22">
+      <c r="N22">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22">
+        <v>7.4740000000000001E-2</v>
+      </c>
+      <c r="S22">
+        <v>67</v>
+      </c>
+      <c r="U22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22">
+        <v>4.8900000000000002E-3</v>
+      </c>
+      <c r="W22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1396,17 +1911,35 @@
       <c r="G23">
         <v>26</v>
       </c>
-      <c r="I23" t="s">
+      <c r="M23" t="s">
         <v>20</v>
       </c>
-      <c r="J23">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="K23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>3.4099999999999998E-3</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23">
+        <v>1.7760000000000001E-2</v>
+      </c>
+      <c r="S23">
+        <v>23</v>
+      </c>
+      <c r="U23" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23">
+        <v>5.756E-2</v>
+      </c>
+      <c r="W23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1425,17 +1958,35 @@
       <c r="G24">
         <v>6</v>
       </c>
-      <c r="I24" t="s">
+      <c r="M24" t="s">
         <v>21</v>
       </c>
-      <c r="J24">
-        <v>4.9300000000000004E-3</v>
-      </c>
-      <c r="K24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>3.8600000000000001E-3</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24">
+        <v>0.10469000000000001</v>
+      </c>
+      <c r="S24">
+        <v>100</v>
+      </c>
+      <c r="U24" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24">
+        <v>2.128E-2</v>
+      </c>
+      <c r="W24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1454,17 +2005,35 @@
       <c r="G25">
         <v>3</v>
       </c>
-      <c r="I25" t="s">
+      <c r="M25" t="s">
         <v>22</v>
       </c>
-      <c r="J25">
-        <v>5.6299999999999996E-3</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25">
+        <v>4.6730000000000001E-2</v>
+      </c>
+      <c r="S25">
+        <v>49</v>
+      </c>
+      <c r="U25" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25">
+        <v>2.96E-3</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1483,17 +2052,35 @@
       <c r="G26">
         <v>30</v>
       </c>
-      <c r="I26" t="s">
+      <c r="M26" t="s">
         <v>23</v>
       </c>
-      <c r="J26">
-        <v>6.9800000000000001E-3</v>
-      </c>
-      <c r="K26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26">
+        <v>0.17341000000000001</v>
+      </c>
+      <c r="S26">
+        <v>112</v>
+      </c>
+      <c r="U26" t="s">
+        <v>23</v>
+      </c>
+      <c r="V26">
+        <v>0.1178</v>
+      </c>
+      <c r="W26">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1512,17 +2099,35 @@
       <c r="G27">
         <v>8</v>
       </c>
-      <c r="I27" t="s">
+      <c r="M27" t="s">
         <v>24</v>
       </c>
-      <c r="J27">
-        <v>8.1799999999999998E-3</v>
-      </c>
-      <c r="K27">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>3.0400000000000002E-3</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27">
+        <v>2.2550000000000001E-2</v>
+      </c>
+      <c r="S27">
+        <v>21</v>
+      </c>
+      <c r="U27" t="s">
+        <v>24</v>
+      </c>
+      <c r="V27">
+        <v>2.9790000000000001E-2</v>
+      </c>
+      <c r="W27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1541,17 +2146,35 @@
       <c r="G28">
         <v>9</v>
       </c>
-      <c r="I28" t="s">
+      <c r="M28" t="s">
         <v>25</v>
       </c>
-      <c r="J28">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="K28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>3.3899999999999998E-3</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28">
+        <v>2.08325</v>
+      </c>
+      <c r="S28">
+        <v>1926</v>
+      </c>
+      <c r="U28" t="s">
+        <v>25</v>
+      </c>
+      <c r="V28">
+        <v>3.8989999999999997E-2</v>
+      </c>
+      <c r="W28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1570,17 +2193,35 @@
       <c r="G29">
         <v>2</v>
       </c>
-      <c r="I29" t="s">
+      <c r="M29" t="s">
         <v>26</v>
       </c>
-      <c r="J29">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="K29">
+      <c r="N29">
+        <v>2.98E-3</v>
+      </c>
+      <c r="O29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29">
+        <v>0.42061999999999999</v>
+      </c>
+      <c r="S29">
+        <v>357</v>
+      </c>
+      <c r="U29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V29">
+        <v>3.934E-2</v>
+      </c>
+      <c r="W29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1599,17 +2240,35 @@
       <c r="G30">
         <v>2</v>
       </c>
-      <c r="I30" t="s">
+      <c r="M30" t="s">
         <v>27</v>
       </c>
-      <c r="J30">
-        <v>4.5700000000000003E-3</v>
-      </c>
-      <c r="K30">
+      <c r="N30">
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="O30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q30" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30">
+        <v>0.79574</v>
+      </c>
+      <c r="S30">
+        <v>783</v>
+      </c>
+      <c r="U30" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30">
+        <v>0.47955999999999999</v>
+      </c>
+      <c r="W30">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1628,17 +2287,35 @@
       <c r="G31">
         <v>9</v>
       </c>
-      <c r="I31" t="s">
+      <c r="M31" t="s">
         <v>28</v>
       </c>
-      <c r="J31">
-        <v>6.0600000000000003E-3</v>
-      </c>
-      <c r="K31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>3.5599999999999998E-3</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>28</v>
+      </c>
+      <c r="R31">
+        <v>0.29016999999999998</v>
+      </c>
+      <c r="S31">
+        <v>257</v>
+      </c>
+      <c r="U31" t="s">
+        <v>28</v>
+      </c>
+      <c r="V31">
+        <v>4.326E-2</v>
+      </c>
+      <c r="W31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1657,17 +2334,35 @@
       <c r="G32">
         <v>3</v>
       </c>
-      <c r="I32" t="s">
+      <c r="M32" t="s">
         <v>29</v>
       </c>
-      <c r="J32">
-        <v>7.5399999999999998E-3</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>3.1700000000000001E-3</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R32">
+        <v>0.29404000000000002</v>
+      </c>
+      <c r="S32">
+        <v>258</v>
+      </c>
+      <c r="U32" t="s">
+        <v>29</v>
+      </c>
+      <c r="V32">
+        <v>0.13586999999999999</v>
+      </c>
+      <c r="W32">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1686,17 +2381,35 @@
       <c r="G33">
         <v>3</v>
       </c>
-      <c r="I33" t="s">
+      <c r="M33" t="s">
         <v>30</v>
       </c>
-      <c r="J33">
-        <v>7.11E-3</v>
-      </c>
-      <c r="K33">
+      <c r="N33">
+        <v>3.0899999999999999E-3</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <v>5.1950000000000003E-2</v>
+      </c>
+      <c r="S33">
+        <v>45</v>
+      </c>
+      <c r="U33" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33">
+        <v>4.8300000000000001E-3</v>
+      </c>
+      <c r="W33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1715,17 +2428,35 @@
       <c r="G34">
         <v>3</v>
       </c>
-      <c r="I34" t="s">
+      <c r="M34" t="s">
         <v>31</v>
       </c>
-      <c r="J34">
-        <v>8.6599999999999993E-3</v>
-      </c>
-      <c r="K34">
+      <c r="N34">
+        <v>3.8300000000000001E-3</v>
+      </c>
+      <c r="O34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q34" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34">
+        <v>0.17751</v>
+      </c>
+      <c r="S34">
+        <v>179</v>
+      </c>
+      <c r="U34" t="s">
+        <v>31</v>
+      </c>
+      <c r="V34">
+        <v>0.42754999999999999</v>
+      </c>
+      <c r="W34">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1744,17 +2475,35 @@
       <c r="G35">
         <v>4</v>
       </c>
-      <c r="I35" t="s">
+      <c r="M35" t="s">
         <v>32</v>
       </c>
-      <c r="J35">
-        <v>7.79E-3</v>
-      </c>
-      <c r="K35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>4.2199999999999998E-3</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35">
+        <v>8.5980000000000001E-2</v>
+      </c>
+      <c r="S35">
+        <v>80</v>
+      </c>
+      <c r="U35" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35">
+        <v>6.2269999999999999E-2</v>
+      </c>
+      <c r="W35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1773,17 +2522,35 @@
       <c r="G36">
         <v>7</v>
       </c>
-      <c r="I36" t="s">
+      <c r="M36" t="s">
         <v>33</v>
       </c>
-      <c r="J36">
-        <v>1.7579999999999998E-2</v>
-      </c>
-      <c r="K36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>3.8500000000000001E-3</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36">
+        <v>3.3526899999999999</v>
+      </c>
+      <c r="S36">
+        <v>2863</v>
+      </c>
+      <c r="U36" t="s">
+        <v>33</v>
+      </c>
+      <c r="V36">
+        <v>2.613E-2</v>
+      </c>
+      <c r="W36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1802,17 +2569,26 @@
       <c r="G37">
         <v>6</v>
       </c>
-      <c r="I37" t="s">
+      <c r="M37" t="s">
         <v>34</v>
       </c>
-      <c r="J37">
-        <v>2.4670000000000001E-2</v>
-      </c>
-      <c r="K37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="U37" t="s">
+        <v>34</v>
+      </c>
+      <c r="V37">
+        <v>2.3050000000000001E-2</v>
+      </c>
+      <c r="W37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1831,17 +2607,26 @@
       <c r="G38">
         <v>4</v>
       </c>
-      <c r="I38" t="s">
+      <c r="M38" t="s">
         <v>35</v>
       </c>
-      <c r="J38">
-        <v>1.516E-2</v>
-      </c>
-      <c r="K38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>5.2599999999999999E-3</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="U38" t="s">
+        <v>35</v>
+      </c>
+      <c r="V38">
+        <v>2.137E-2</v>
+      </c>
+      <c r="W38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1860,17 +2645,26 @@
       <c r="G39">
         <v>27</v>
       </c>
-      <c r="I39" t="s">
+      <c r="M39" t="s">
         <v>36</v>
       </c>
-      <c r="J39">
-        <v>1.095E-2</v>
-      </c>
-      <c r="K39">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>6.8799999999999998E-3</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+      <c r="U39" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39">
+        <v>1.9560000000000001E-2</v>
+      </c>
+      <c r="W39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1889,17 +2683,26 @@
       <c r="G40">
         <v>3</v>
       </c>
-      <c r="I40" t="s">
+      <c r="M40" t="s">
         <v>37</v>
       </c>
-      <c r="J40">
-        <v>5.6699999999999997E-3</v>
-      </c>
-      <c r="K40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>2.8700000000000002E-3</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="U40" t="s">
+        <v>37</v>
+      </c>
+      <c r="V40">
+        <v>3.7799999999999999E-3</v>
+      </c>
+      <c r="W40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1918,17 +2721,26 @@
       <c r="G41">
         <v>3</v>
       </c>
-      <c r="I41" t="s">
+      <c r="M41" t="s">
         <v>38</v>
       </c>
-      <c r="J41">
-        <v>5.3299999999999997E-3</v>
-      </c>
-      <c r="K41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="U41" t="s">
+        <v>38</v>
+      </c>
+      <c r="V41">
+        <v>0.10664</v>
+      </c>
+      <c r="W41">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1947,17 +2759,26 @@
       <c r="G42">
         <v>28</v>
       </c>
-      <c r="I42" t="s">
+      <c r="M42" t="s">
         <v>39</v>
       </c>
-      <c r="J42">
-        <v>6.2100000000000002E-3</v>
-      </c>
-      <c r="K42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>7.7600000000000004E-3</v>
+      </c>
+      <c r="O42">
+        <v>8</v>
+      </c>
+      <c r="U42" t="s">
+        <v>39</v>
+      </c>
+      <c r="V42">
+        <v>0.188</v>
+      </c>
+      <c r="W42">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1976,17 +2797,26 @@
       <c r="G43">
         <v>22</v>
       </c>
-      <c r="I43" t="s">
+      <c r="M43" t="s">
         <v>40</v>
       </c>
-      <c r="J43">
-        <v>1.0460000000000001E-2</v>
-      </c>
-      <c r="K43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="U43" t="s">
+        <v>40</v>
+      </c>
+      <c r="V43">
+        <v>7.8780000000000003E-2</v>
+      </c>
+      <c r="W43">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2005,17 +2835,26 @@
       <c r="G44">
         <v>48</v>
       </c>
-      <c r="I44" t="s">
+      <c r="M44" t="s">
         <v>41</v>
       </c>
-      <c r="J44">
-        <v>1.4489999999999999E-2</v>
-      </c>
-      <c r="K44">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>7.0600000000000003E-3</v>
+      </c>
+      <c r="O44">
+        <v>7</v>
+      </c>
+      <c r="U44" t="s">
+        <v>41</v>
+      </c>
+      <c r="V44">
+        <v>1.66E-2</v>
+      </c>
+      <c r="W44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -2034,17 +2873,26 @@
       <c r="G45">
         <v>8</v>
       </c>
-      <c r="I45" t="s">
+      <c r="M45" t="s">
         <v>42</v>
       </c>
-      <c r="J45">
-        <v>1.7520000000000001E-2</v>
-      </c>
-      <c r="K45">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="U45" t="s">
+        <v>42</v>
+      </c>
+      <c r="V45">
+        <v>1.354E-2</v>
+      </c>
+      <c r="W45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -2063,17 +2911,26 @@
       <c r="G46">
         <v>5</v>
       </c>
-      <c r="I46" t="s">
+      <c r="M46" t="s">
         <v>43</v>
       </c>
-      <c r="J46">
-        <v>1.1520000000000001E-2</v>
-      </c>
-      <c r="K46">
+      <c r="N46">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="O46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="U46" t="s">
+        <v>43</v>
+      </c>
+      <c r="V46">
+        <v>2.3560000000000001E-2</v>
+      </c>
+      <c r="W46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2092,17 +2949,26 @@
       <c r="G47">
         <v>3</v>
       </c>
-      <c r="I47" t="s">
+      <c r="M47" t="s">
         <v>44</v>
       </c>
-      <c r="J47">
-        <v>7.8300000000000002E-3</v>
-      </c>
-      <c r="K47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>2.96E-3</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="U47" t="s">
+        <v>44</v>
+      </c>
+      <c r="V47">
+        <v>0.35637999999999997</v>
+      </c>
+      <c r="W47">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2121,17 +2987,26 @@
       <c r="G48">
         <v>3</v>
       </c>
-      <c r="I48" t="s">
+      <c r="M48" t="s">
         <v>45</v>
       </c>
-      <c r="J48">
-        <v>6.1500000000000001E-3</v>
-      </c>
-      <c r="K48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>3.1900000000000001E-3</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="U48" t="s">
+        <v>45</v>
+      </c>
+      <c r="V48">
+        <v>2.3120000000000002E-2</v>
+      </c>
+      <c r="W48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2150,17 +3025,26 @@
       <c r="G49">
         <v>3</v>
       </c>
-      <c r="I49" t="s">
+      <c r="M49" t="s">
         <v>46</v>
       </c>
-      <c r="J49">
-        <v>1.448E-2</v>
-      </c>
-      <c r="K49">
+      <c r="N49">
+        <v>3.3400000000000001E-3</v>
+      </c>
+      <c r="O49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="U49" t="s">
+        <v>46</v>
+      </c>
+      <c r="V49">
+        <v>4.7989999999999998E-2</v>
+      </c>
+      <c r="W49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2179,17 +3063,26 @@
       <c r="G50">
         <v>5</v>
       </c>
-      <c r="I50" t="s">
+      <c r="M50" t="s">
         <v>47</v>
       </c>
-      <c r="J50">
-        <v>6.94E-3</v>
-      </c>
-      <c r="K50">
+      <c r="N50">
+        <v>3.13E-3</v>
+      </c>
+      <c r="O50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="U50" t="s">
+        <v>47</v>
+      </c>
+      <c r="V50">
+        <v>1.2030000000000001E-2</v>
+      </c>
+      <c r="W50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2208,17 +3101,26 @@
       <c r="G51">
         <v>2</v>
       </c>
-      <c r="I51" t="s">
+      <c r="M51" t="s">
         <v>48</v>
       </c>
-      <c r="J51">
-        <v>5.8199999999999997E-3</v>
-      </c>
-      <c r="K51">
+      <c r="N51">
+        <v>3.2200000000000002E-3</v>
+      </c>
+      <c r="O51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="U51" t="s">
+        <v>48</v>
+      </c>
+      <c r="V51">
+        <v>5.94E-3</v>
+      </c>
+      <c r="W51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2237,17 +3139,26 @@
       <c r="G52">
         <v>2</v>
       </c>
-      <c r="I52" t="s">
+      <c r="M52" t="s">
         <v>49</v>
       </c>
-      <c r="J52">
-        <v>8.9029999999999998E-2</v>
-      </c>
-      <c r="K52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>3.0500000000000002E-3</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="U52" t="s">
+        <v>49</v>
+      </c>
+      <c r="V52">
+        <v>9.1109999999999997E-2</v>
+      </c>
+      <c r="W52">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2266,17 +3177,26 @@
       <c r="G53">
         <v>3</v>
       </c>
-      <c r="I53" t="s">
+      <c r="M53" t="s">
         <v>50</v>
       </c>
-      <c r="J53">
-        <v>4.079E-2</v>
-      </c>
-      <c r="K53">
+      <c r="N53">
+        <v>2.8600000000000001E-3</v>
+      </c>
+      <c r="O53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="U53" t="s">
+        <v>50</v>
+      </c>
+      <c r="V53">
+        <v>0.15193999999999999</v>
+      </c>
+      <c r="W53">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
         <v>51</v>
       </c>
@@ -2286,17 +3206,26 @@
       <c r="G54">
         <v>290</v>
       </c>
-      <c r="I54" t="s">
+      <c r="M54" t="s">
         <v>51</v>
       </c>
-      <c r="J54">
-        <v>0.16814000000000001</v>
-      </c>
-      <c r="K54">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>0.81645000000000001</v>
+      </c>
+      <c r="O54">
+        <v>587</v>
+      </c>
+      <c r="U54" t="s">
+        <v>51</v>
+      </c>
+      <c r="V54">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="W54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
         <v>52</v>
       </c>
@@ -2306,17 +3235,26 @@
       <c r="G55">
         <v>382</v>
       </c>
-      <c r="I55" t="s">
+      <c r="M55" t="s">
         <v>52</v>
       </c>
-      <c r="J55">
-        <v>0.13031000000000001</v>
-      </c>
-      <c r="K55">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>0.13236000000000001</v>
+      </c>
+      <c r="O55">
+        <v>154</v>
+      </c>
+      <c r="U55" t="s">
+        <v>52</v>
+      </c>
+      <c r="V55">
+        <v>7.6109999999999997E-2</v>
+      </c>
+      <c r="W55">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
         <v>53</v>
       </c>
@@ -2326,17 +3264,26 @@
       <c r="G56">
         <v>424</v>
       </c>
-      <c r="I56" t="s">
+      <c r="M56" t="s">
         <v>53</v>
       </c>
-      <c r="J56">
-        <v>5.9049999999999998E-2</v>
-      </c>
-      <c r="K56">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>0.45106000000000002</v>
+      </c>
+      <c r="O56">
+        <v>356</v>
+      </c>
+      <c r="U56" t="s">
+        <v>53</v>
+      </c>
+      <c r="V56">
+        <v>0.85846999999999996</v>
+      </c>
+      <c r="W56">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
         <v>54</v>
       </c>
@@ -2346,17 +3293,26 @@
       <c r="G57">
         <v>3885</v>
       </c>
-      <c r="I57" t="s">
+      <c r="M57" t="s">
         <v>54</v>
       </c>
-      <c r="J57">
-        <v>0.55644000000000005</v>
-      </c>
-      <c r="K57">
-        <v>4159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>0.36853999999999998</v>
+      </c>
+      <c r="O57">
+        <v>300</v>
+      </c>
+      <c r="U57" t="s">
+        <v>54</v>
+      </c>
+      <c r="V57">
+        <v>1.0279999999999999E-2</v>
+      </c>
+      <c r="W57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
         <v>55</v>
       </c>
@@ -2366,17 +3322,26 @@
       <c r="G58">
         <v>34071</v>
       </c>
-      <c r="I58" t="s">
+      <c r="M58" t="s">
         <v>55</v>
       </c>
-      <c r="J58">
-        <v>2.2665099999999998</v>
-      </c>
-      <c r="K58">
-        <v>25144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>0.46328000000000003</v>
+      </c>
+      <c r="O58">
+        <v>338</v>
+      </c>
+      <c r="U58" t="s">
+        <v>55</v>
+      </c>
+      <c r="V58">
+        <v>4.4900000000000001E-3</v>
+      </c>
+      <c r="W58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
         <v>56</v>
       </c>
@@ -2386,17 +3351,26 @@
       <c r="G59">
         <v>17794</v>
       </c>
-      <c r="I59" t="s">
+      <c r="M59" t="s">
         <v>56</v>
       </c>
-      <c r="J59">
-        <v>0.38628000000000001</v>
-      </c>
-      <c r="K59">
-        <v>4441</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="O59">
+        <v>732</v>
+      </c>
+      <c r="U59" t="s">
+        <v>56</v>
+      </c>
+      <c r="V59">
+        <v>0.31298999999999999</v>
+      </c>
+      <c r="W59">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
         <v>57</v>
       </c>
@@ -2406,17 +3380,26 @@
       <c r="G60">
         <v>19666</v>
       </c>
-      <c r="I60" t="s">
+      <c r="M60" t="s">
         <v>57</v>
       </c>
-      <c r="J60">
-        <v>1.79169</v>
-      </c>
-      <c r="K60">
-        <v>19370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>0.52688000000000001</v>
+      </c>
+      <c r="O60">
+        <v>452</v>
+      </c>
+      <c r="U60" t="s">
+        <v>57</v>
+      </c>
+      <c r="V60">
+        <v>0.45222000000000001</v>
+      </c>
+      <c r="W60">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
         <v>58</v>
       </c>
@@ -2426,17 +3409,26 @@
       <c r="G61">
         <v>179</v>
       </c>
-      <c r="I61" t="s">
+      <c r="M61" t="s">
         <v>58</v>
       </c>
-      <c r="J61">
-        <v>1.278E-2</v>
-      </c>
-      <c r="K61">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>0.14668</v>
+      </c>
+      <c r="O61">
+        <v>140</v>
+      </c>
+      <c r="U61" t="s">
+        <v>58</v>
+      </c>
+      <c r="V61">
+        <v>5.9569999999999998E-2</v>
+      </c>
+      <c r="W61">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
         <v>59</v>
       </c>
@@ -2446,17 +3438,26 @@
       <c r="G62">
         <v>17259</v>
       </c>
-      <c r="I62" t="s">
+      <c r="M62" t="s">
         <v>59</v>
       </c>
-      <c r="J62">
-        <v>1.3388</v>
-      </c>
-      <c r="K62">
-        <v>15452</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>0.40126000000000001</v>
+      </c>
+      <c r="O62">
+        <v>319</v>
+      </c>
+      <c r="U62" t="s">
+        <v>59</v>
+      </c>
+      <c r="V62">
+        <v>3.3210000000000003E-2</v>
+      </c>
+      <c r="W62">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
         <v>60</v>
       </c>
@@ -2466,17 +3467,26 @@
       <c r="G63">
         <v>1562</v>
       </c>
-      <c r="I63" t="s">
+      <c r="M63" t="s">
         <v>60</v>
       </c>
-      <c r="J63">
-        <v>6.6979999999999998E-2</v>
-      </c>
-      <c r="K63">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>0.27313999999999999</v>
+      </c>
+      <c r="O63">
+        <v>231</v>
+      </c>
+      <c r="U63" t="s">
+        <v>60</v>
+      </c>
+      <c r="V63">
+        <v>8.6050000000000001E-2</v>
+      </c>
+      <c r="W63">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
         <v>61</v>
       </c>
@@ -2486,17 +3496,26 @@
       <c r="G64">
         <v>45327</v>
       </c>
-      <c r="I64" t="s">
+      <c r="M64" t="s">
         <v>61</v>
       </c>
-      <c r="J64">
-        <v>0.54925000000000002</v>
-      </c>
-      <c r="K64">
-        <v>6048</v>
-      </c>
-    </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>0.14218</v>
+      </c>
+      <c r="O64">
+        <v>112</v>
+      </c>
+      <c r="U64" t="s">
+        <v>61</v>
+      </c>
+      <c r="V64">
+        <v>0.16295999999999999</v>
+      </c>
+      <c r="W64">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
         <v>62</v>
       </c>
@@ -2506,17 +3525,26 @@
       <c r="G65">
         <v>358</v>
       </c>
-      <c r="I65" t="s">
+      <c r="M65" t="s">
         <v>62</v>
       </c>
-      <c r="J65">
-        <v>8.4140000000000006E-2</v>
-      </c>
-      <c r="K65">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>5.6750000000000002E-2</v>
+      </c>
+      <c r="O65">
+        <v>48</v>
+      </c>
+      <c r="U65" t="s">
+        <v>62</v>
+      </c>
+      <c r="V65">
+        <v>0.30203999999999998</v>
+      </c>
+      <c r="W65">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
         <v>63</v>
       </c>
@@ -2526,17 +3554,26 @@
       <c r="G66">
         <v>518</v>
       </c>
-      <c r="I66" t="s">
+      <c r="M66" t="s">
         <v>63</v>
       </c>
-      <c r="J66">
-        <v>6.6600000000000006E-2</v>
-      </c>
-      <c r="K66">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>8.1140000000000004E-2</v>
+      </c>
+      <c r="O66">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s">
+        <v>63</v>
+      </c>
+      <c r="V66">
+        <v>1.99983</v>
+      </c>
+      <c r="W66">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="67" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
         <v>64</v>
       </c>
@@ -2546,17 +3583,26 @@
       <c r="G67">
         <v>1940</v>
       </c>
-      <c r="I67" t="s">
+      <c r="M67" t="s">
         <v>64</v>
       </c>
-      <c r="J67">
-        <v>5.7009999999999998E-2</v>
-      </c>
-      <c r="K67">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>0.41908000000000001</v>
+      </c>
+      <c r="O67">
+        <v>324</v>
+      </c>
+      <c r="U67" t="s">
+        <v>64</v>
+      </c>
+      <c r="V67">
+        <v>0.10631</v>
+      </c>
+      <c r="W67">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
         <v>65</v>
       </c>
@@ -2566,17 +3612,26 @@
       <c r="G68">
         <v>354</v>
       </c>
-      <c r="I68" t="s">
+      <c r="M68" t="s">
         <v>65</v>
       </c>
-      <c r="J68">
-        <v>4.9930000000000002E-2</v>
-      </c>
-      <c r="K68">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <v>3.4970000000000001E-2</v>
+      </c>
+      <c r="O68">
+        <v>28</v>
+      </c>
+      <c r="U68" t="s">
+        <v>65</v>
+      </c>
+      <c r="V68">
+        <v>2.7609999999999999E-2</v>
+      </c>
+      <c r="W68">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
         <v>66</v>
       </c>
@@ -2586,17 +3641,26 @@
       <c r="G69">
         <v>45258</v>
       </c>
-      <c r="I69" t="s">
+      <c r="M69" t="s">
         <v>66</v>
       </c>
-      <c r="J69">
-        <v>4.0443100000000003</v>
-      </c>
-      <c r="K69">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <v>0.12306</v>
+      </c>
+      <c r="O69">
+        <v>104</v>
+      </c>
+      <c r="U69" t="s">
+        <v>66</v>
+      </c>
+      <c r="V69">
+        <v>4.6120000000000001E-2</v>
+      </c>
+      <c r="W69">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
         <v>67</v>
       </c>
@@ -2606,17 +3670,26 @@
       <c r="G70">
         <v>760</v>
       </c>
-      <c r="I70" t="s">
+      <c r="M70" t="s">
         <v>67</v>
       </c>
-      <c r="J70">
-        <v>0.11548</v>
-      </c>
-      <c r="K70">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <v>0.13668</v>
+      </c>
+      <c r="O70">
+        <v>150</v>
+      </c>
+      <c r="U70" t="s">
+        <v>67</v>
+      </c>
+      <c r="V70">
+        <v>0.26568000000000003</v>
+      </c>
+      <c r="W70">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
         <v>68</v>
       </c>
@@ -2626,17 +3699,26 @@
       <c r="G71">
         <v>12890</v>
       </c>
-      <c r="I71" t="s">
+      <c r="M71" t="s">
         <v>68</v>
       </c>
-      <c r="J71">
-        <v>0.62656000000000001</v>
-      </c>
-      <c r="K71">
-        <v>6702</v>
-      </c>
-    </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <v>0.27081</v>
+      </c>
+      <c r="O71">
+        <v>219</v>
+      </c>
+      <c r="U71" t="s">
+        <v>68</v>
+      </c>
+      <c r="V71">
+        <v>1.259E-2</v>
+      </c>
+      <c r="W71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
         <v>69</v>
       </c>
@@ -2646,17 +3728,26 @@
       <c r="G72">
         <v>16</v>
       </c>
-      <c r="I72" t="s">
+      <c r="M72" t="s">
         <v>69</v>
       </c>
-      <c r="J72">
-        <v>3.7799999999999999E-3</v>
-      </c>
-      <c r="K72">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <v>2.222E-2</v>
+      </c>
+      <c r="O72">
+        <v>19</v>
+      </c>
+      <c r="U72" t="s">
+        <v>69</v>
+      </c>
+      <c r="V72">
+        <v>0.44586999999999999</v>
+      </c>
+      <c r="W72">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
         <v>70</v>
       </c>
@@ -2666,17 +3757,26 @@
       <c r="G73">
         <v>403</v>
       </c>
-      <c r="I73" t="s">
+      <c r="M73" t="s">
         <v>70</v>
       </c>
-      <c r="J73">
-        <v>4.9189999999999998E-2</v>
-      </c>
-      <c r="K73">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <v>6.2239999999999997E-2</v>
+      </c>
+      <c r="O73">
+        <v>53</v>
+      </c>
+      <c r="U73" t="s">
+        <v>70</v>
+      </c>
+      <c r="V73">
+        <v>2.1569999999999999E-2</v>
+      </c>
+      <c r="W73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
         <v>71</v>
       </c>
@@ -2686,17 +3786,26 @@
       <c r="G74">
         <v>2859</v>
       </c>
-      <c r="I74" t="s">
+      <c r="M74" t="s">
         <v>71</v>
       </c>
-      <c r="J74">
-        <v>2.3730000000000001E-2</v>
-      </c>
-      <c r="K74">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N74">
+        <v>0.24476999999999999</v>
+      </c>
+      <c r="O74">
+        <v>214</v>
+      </c>
+      <c r="U74" t="s">
+        <v>71</v>
+      </c>
+      <c r="V74">
+        <v>8.6269999999999999E-2</v>
+      </c>
+      <c r="W74">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
         <v>72</v>
       </c>
@@ -2706,17 +3815,26 @@
       <c r="G75">
         <v>95</v>
       </c>
-      <c r="I75" t="s">
+      <c r="M75" t="s">
         <v>72</v>
       </c>
-      <c r="J75">
-        <v>8.1499999999999993E-3</v>
-      </c>
-      <c r="K75">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="O75">
+        <v>23</v>
+      </c>
+      <c r="U75" t="s">
+        <v>72</v>
+      </c>
+      <c r="V75">
+        <v>2.07E-2</v>
+      </c>
+      <c r="W75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
         <v>73</v>
       </c>
@@ -2726,17 +3844,26 @@
       <c r="G76">
         <v>2203</v>
       </c>
-      <c r="I76" t="s">
+      <c r="M76" t="s">
         <v>73</v>
       </c>
-      <c r="J76">
-        <v>0.20105999999999999</v>
-      </c>
-      <c r="K76">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <v>0.32152999999999998</v>
+      </c>
+      <c r="O76">
+        <v>215</v>
+      </c>
+      <c r="U76" t="s">
+        <v>73</v>
+      </c>
+      <c r="V76">
+        <v>9.4199999999999996E-3</v>
+      </c>
+      <c r="W76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
         <v>74</v>
       </c>
@@ -2746,17 +3873,26 @@
       <c r="G77">
         <v>448</v>
       </c>
-      <c r="I77" t="s">
+      <c r="M77" t="s">
         <v>74</v>
       </c>
-      <c r="J77">
-        <v>3.508E-2</v>
-      </c>
-      <c r="K77">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <v>1.3860000000000001E-2</v>
+      </c>
+      <c r="O77">
+        <v>16</v>
+      </c>
+      <c r="U77" t="s">
+        <v>74</v>
+      </c>
+      <c r="V77">
+        <v>7.5500000000000003E-3</v>
+      </c>
+      <c r="W77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
         <v>75</v>
       </c>
@@ -2766,17 +3902,26 @@
       <c r="G78">
         <v>21</v>
       </c>
-      <c r="I78" t="s">
+      <c r="M78" t="s">
         <v>75</v>
       </c>
-      <c r="J78">
-        <v>1.175E-2</v>
-      </c>
-      <c r="K78">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <v>1.814E-2</v>
+      </c>
+      <c r="O78">
+        <v>20</v>
+      </c>
+      <c r="U78" t="s">
+        <v>75</v>
+      </c>
+      <c r="V78">
+        <v>0.34512999999999999</v>
+      </c>
+      <c r="W78">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
         <v>76</v>
       </c>
@@ -2786,17 +3931,26 @@
       <c r="G79">
         <v>626</v>
       </c>
-      <c r="I79" t="s">
+      <c r="M79" t="s">
         <v>76</v>
       </c>
-      <c r="J79">
-        <v>5.423E-2</v>
-      </c>
-      <c r="K79">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <v>4.6710000000000002E-2</v>
+      </c>
+      <c r="O79">
+        <v>43</v>
+      </c>
+      <c r="U79" t="s">
+        <v>76</v>
+      </c>
+      <c r="V79">
+        <v>0.33080999999999999</v>
+      </c>
+      <c r="W79">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
         <v>77</v>
       </c>
@@ -2806,17 +3960,26 @@
       <c r="G80">
         <v>603</v>
       </c>
-      <c r="I80" t="s">
+      <c r="M80" t="s">
         <v>77</v>
       </c>
-      <c r="J80">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="K80">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <v>0.14384</v>
+      </c>
+      <c r="O80">
+        <v>149</v>
+      </c>
+      <c r="U80" t="s">
+        <v>77</v>
+      </c>
+      <c r="V80">
+        <v>0.85058</v>
+      </c>
+      <c r="W80">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="81" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
         <v>78</v>
       </c>
@@ -2826,17 +3989,26 @@
       <c r="G81">
         <v>46954</v>
       </c>
-      <c r="I81" t="s">
+      <c r="M81" t="s">
         <v>78</v>
       </c>
-      <c r="J81">
-        <v>4.0939699999999997</v>
-      </c>
-      <c r="K81">
-        <v>47172</v>
-      </c>
-    </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <v>0.12964999999999999</v>
+      </c>
+      <c r="O81">
+        <v>96</v>
+      </c>
+      <c r="U81" t="s">
+        <v>78</v>
+      </c>
+      <c r="V81">
+        <v>2.794E-2</v>
+      </c>
+      <c r="W81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
         <v>79</v>
       </c>
@@ -2846,17 +4018,26 @@
       <c r="G82">
         <v>42</v>
       </c>
-      <c r="I82" t="s">
+      <c r="M82" t="s">
         <v>79</v>
       </c>
-      <c r="J82">
-        <v>8.6400000000000001E-3</v>
-      </c>
-      <c r="K82">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <v>7.3499999999999998E-3</v>
+      </c>
+      <c r="O82">
+        <v>8</v>
+      </c>
+      <c r="U82" t="s">
+        <v>79</v>
+      </c>
+      <c r="V82">
+        <v>8.1200000000000005E-3</v>
+      </c>
+      <c r="W82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
         <v>80</v>
       </c>
@@ -2866,17 +4047,26 @@
       <c r="G83">
         <v>918</v>
       </c>
-      <c r="I83" t="s">
+      <c r="M83" t="s">
         <v>80</v>
       </c>
-      <c r="J83">
-        <v>0.12130000000000001</v>
-      </c>
-      <c r="K83">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <v>8.1960000000000005E-2</v>
+      </c>
+      <c r="O83">
+        <v>69</v>
+      </c>
+      <c r="U83" t="s">
+        <v>80</v>
+      </c>
+      <c r="V83">
+        <v>0.14002999999999999</v>
+      </c>
+      <c r="W83">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
         <v>81</v>
       </c>
@@ -2886,17 +4076,26 @@
       <c r="G84">
         <v>224</v>
       </c>
-      <c r="I84" t="s">
+      <c r="M84" t="s">
         <v>81</v>
       </c>
-      <c r="J84">
-        <v>2.7699999999999999E-2</v>
-      </c>
-      <c r="K84">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <v>3.916E-2</v>
+      </c>
+      <c r="O84">
+        <v>31</v>
+      </c>
+      <c r="U84" t="s">
+        <v>81</v>
+      </c>
+      <c r="V84">
+        <v>0.16747999999999999</v>
+      </c>
+      <c r="W84">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
         <v>82</v>
       </c>
@@ -2906,17 +4105,26 @@
       <c r="G85">
         <v>313</v>
       </c>
-      <c r="I85" t="s">
+      <c r="M85" t="s">
         <v>82</v>
       </c>
-      <c r="J85">
-        <v>4.1680000000000002E-2</v>
-      </c>
-      <c r="K85">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <v>2.1239999999999998E-2</v>
+      </c>
+      <c r="O85">
+        <v>19</v>
+      </c>
+      <c r="U85" t="s">
+        <v>82</v>
+      </c>
+      <c r="V85">
+        <v>1.359E-2</v>
+      </c>
+      <c r="W85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
         <v>83</v>
       </c>
@@ -2926,17 +4134,26 @@
       <c r="G86">
         <v>9</v>
       </c>
-      <c r="I86" t="s">
+      <c r="M86" t="s">
         <v>83</v>
       </c>
-      <c r="J86">
-        <v>1.6109999999999999E-2</v>
-      </c>
-      <c r="K86">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <v>7.6630000000000004E-2</v>
+      </c>
+      <c r="O86">
+        <v>67</v>
+      </c>
+      <c r="U86" t="s">
+        <v>83</v>
+      </c>
+      <c r="V86">
+        <v>0.87192000000000003</v>
+      </c>
+      <c r="W86">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="87" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
         <v>84</v>
       </c>
@@ -2946,17 +4163,26 @@
       <c r="G87">
         <v>11058</v>
       </c>
-      <c r="I87" t="s">
+      <c r="M87" t="s">
         <v>84</v>
       </c>
-      <c r="J87">
-        <v>0.9899</v>
-      </c>
-      <c r="K87">
-        <v>11827</v>
-      </c>
-    </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <v>1.0006699999999999</v>
+      </c>
+      <c r="O87">
+        <v>900</v>
+      </c>
+      <c r="U87" t="s">
+        <v>84</v>
+      </c>
+      <c r="V87">
+        <v>8.8800000000000007E-3</v>
+      </c>
+      <c r="W87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
         <v>85</v>
       </c>
@@ -2966,17 +4192,26 @@
       <c r="G88">
         <v>941</v>
       </c>
-      <c r="I88" t="s">
+      <c r="M88" t="s">
         <v>85</v>
       </c>
-      <c r="J88">
-        <v>2.8830000000000001E-2</v>
-      </c>
-      <c r="K88">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <v>3.7719999999999997E-2</v>
+      </c>
+      <c r="O88">
+        <v>37</v>
+      </c>
+      <c r="U88" t="s">
+        <v>85</v>
+      </c>
+      <c r="V88">
+        <v>1.255E-2</v>
+      </c>
+      <c r="W88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
         <v>86</v>
       </c>
@@ -2986,17 +4221,26 @@
       <c r="G89">
         <v>958</v>
       </c>
-      <c r="I89" t="s">
+      <c r="M89" t="s">
         <v>86</v>
       </c>
-      <c r="J89">
-        <v>1.5949999999999999E-2</v>
-      </c>
-      <c r="K89">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <v>0.45476</v>
+      </c>
+      <c r="O89">
+        <v>320</v>
+      </c>
+      <c r="U89" t="s">
+        <v>86</v>
+      </c>
+      <c r="V89">
+        <v>6.5329999999999999E-2</v>
+      </c>
+      <c r="W89">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
         <v>87</v>
       </c>
@@ -3006,17 +4250,26 @@
       <c r="G90">
         <v>157</v>
       </c>
-      <c r="I90" t="s">
+      <c r="M90" t="s">
         <v>87</v>
       </c>
-      <c r="J90">
-        <v>2.8209999999999999E-2</v>
-      </c>
-      <c r="K90">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <v>3.7170000000000002E-2</v>
+      </c>
+      <c r="O90">
+        <v>29</v>
+      </c>
+      <c r="U90" t="s">
+        <v>87</v>
+      </c>
+      <c r="V90">
+        <v>2.0629999999999999E-2</v>
+      </c>
+      <c r="W90">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
         <v>88</v>
       </c>
@@ -3026,17 +4279,26 @@
       <c r="G91">
         <v>295</v>
       </c>
-      <c r="I91" t="s">
+      <c r="M91" t="s">
         <v>88</v>
       </c>
-      <c r="J91">
-        <v>4.15E-3</v>
-      </c>
-      <c r="K91">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <v>0.12936</v>
+      </c>
+      <c r="O91">
+        <v>126</v>
+      </c>
+      <c r="U91" t="s">
+        <v>88</v>
+      </c>
+      <c r="V91">
+        <v>2.0480000000000002E-2</v>
+      </c>
+      <c r="W91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E92" t="s">
         <v>89</v>
       </c>
@@ -3046,17 +4308,26 @@
       <c r="G92">
         <v>754</v>
       </c>
-      <c r="I92" t="s">
+      <c r="M92" t="s">
         <v>89</v>
       </c>
-      <c r="J92">
-        <v>3.058E-2</v>
-      </c>
-      <c r="K92">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <v>4.8930000000000001E-2</v>
+      </c>
+      <c r="O92">
+        <v>49</v>
+      </c>
+      <c r="U92" t="s">
+        <v>89</v>
+      </c>
+      <c r="V92">
+        <v>1.7760000000000001E-2</v>
+      </c>
+      <c r="W92">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E93" t="s">
         <v>90</v>
       </c>
@@ -3066,17 +4337,26 @@
       <c r="G93">
         <v>111</v>
       </c>
-      <c r="I93" t="s">
+      <c r="M93" t="s">
         <v>90</v>
       </c>
-      <c r="J93">
-        <v>1.026E-2</v>
-      </c>
-      <c r="K93">
+      <c r="N93">
+        <v>2.8889999999999999E-2</v>
+      </c>
+      <c r="O93">
+        <v>27</v>
+      </c>
+      <c r="U93" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="V93">
+        <v>9.1880000000000003E-2</v>
+      </c>
+      <c r="W93">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E94" t="s">
         <v>91</v>
       </c>
@@ -3086,17 +4366,26 @@
       <c r="G94">
         <v>9749</v>
       </c>
-      <c r="I94" t="s">
+      <c r="M94" t="s">
         <v>91</v>
       </c>
-      <c r="J94">
-        <v>4.3299999999999996E-3</v>
-      </c>
-      <c r="K94">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <v>7.9600000000000001E-3</v>
+      </c>
+      <c r="O94">
+        <v>6</v>
+      </c>
+      <c r="U94" t="s">
+        <v>91</v>
+      </c>
+      <c r="V94">
+        <v>6.3400000000000001E-3</v>
+      </c>
+      <c r="W94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E95" t="s">
         <v>92</v>
       </c>
@@ -3106,17 +4395,26 @@
       <c r="G95">
         <v>1598</v>
       </c>
-      <c r="I95" t="s">
+      <c r="M95" t="s">
         <v>92</v>
       </c>
-      <c r="J95">
-        <v>9.2710000000000001E-2</v>
-      </c>
-      <c r="K95">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="O95">
+        <v>65</v>
+      </c>
+      <c r="U95" t="s">
+        <v>92</v>
+      </c>
+      <c r="V95">
+        <v>1.487E-2</v>
+      </c>
+      <c r="W95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E96" t="s">
         <v>93</v>
       </c>
@@ -3126,17 +4424,26 @@
       <c r="G96">
         <v>1287</v>
       </c>
-      <c r="I96" t="s">
+      <c r="M96" t="s">
         <v>93</v>
       </c>
-      <c r="J96">
-        <v>7.8799999999999999E-3</v>
-      </c>
-      <c r="K96">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <v>9.2700000000000005E-3</v>
+      </c>
+      <c r="O96">
+        <v>9</v>
+      </c>
+      <c r="U96" t="s">
+        <v>93</v>
+      </c>
+      <c r="V96">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="W96">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E97" t="s">
         <v>94</v>
       </c>
@@ -3146,17 +4453,26 @@
       <c r="G97">
         <v>117</v>
       </c>
-      <c r="I97" t="s">
+      <c r="M97" t="s">
         <v>94</v>
       </c>
-      <c r="J97">
-        <v>1.634E-2</v>
-      </c>
-      <c r="K97">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <v>9.5399999999999999E-3</v>
+      </c>
+      <c r="O97">
+        <v>9</v>
+      </c>
+      <c r="U97" t="s">
+        <v>94</v>
+      </c>
+      <c r="V97">
+        <v>7.3859999999999995E-2</v>
+      </c>
+      <c r="W97">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E98" t="s">
         <v>95</v>
       </c>
@@ -3166,17 +4482,26 @@
       <c r="G98">
         <v>266</v>
       </c>
-      <c r="I98" t="s">
+      <c r="M98" t="s">
         <v>95</v>
       </c>
-      <c r="J98">
-        <v>3.2120000000000003E-2</v>
-      </c>
-      <c r="K98">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <v>1.949E-2</v>
+      </c>
+      <c r="O98">
+        <v>19</v>
+      </c>
+      <c r="U98" t="s">
+        <v>95</v>
+      </c>
+      <c r="V98">
+        <v>0.51973999999999998</v>
+      </c>
+      <c r="W98">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="99" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E99" t="s">
         <v>96</v>
       </c>
@@ -3186,17 +4511,26 @@
       <c r="G99">
         <v>27619</v>
       </c>
-      <c r="I99" t="s">
+      <c r="M99" t="s">
         <v>96</v>
       </c>
-      <c r="J99">
-        <v>0.85701000000000005</v>
-      </c>
-      <c r="K99">
-        <v>9271</v>
-      </c>
-    </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <v>3.746E-2</v>
+      </c>
+      <c r="O99">
+        <v>38</v>
+      </c>
+      <c r="U99" t="s">
+        <v>96</v>
+      </c>
+      <c r="V99">
+        <v>0.36936999999999998</v>
+      </c>
+      <c r="W99">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="100" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E100" t="s">
         <v>97</v>
       </c>
@@ -3206,17 +4540,26 @@
       <c r="G100">
         <v>4007</v>
       </c>
-      <c r="I100" t="s">
+      <c r="M100" t="s">
         <v>97</v>
       </c>
-      <c r="J100">
-        <v>0.57867000000000002</v>
-      </c>
-      <c r="K100">
-        <v>5890</v>
-      </c>
-    </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <v>0.19253000000000001</v>
+      </c>
+      <c r="O100">
+        <v>162</v>
+      </c>
+      <c r="U100" t="s">
+        <v>97</v>
+      </c>
+      <c r="V100">
+        <v>7.9259999999999997E-2</v>
+      </c>
+      <c r="W100">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E101" t="s">
         <v>98</v>
       </c>
@@ -3226,17 +4569,26 @@
       <c r="G101">
         <v>940</v>
       </c>
-      <c r="I101" t="s">
+      <c r="M101" t="s">
         <v>98</v>
       </c>
-      <c r="J101">
-        <v>0.17521999999999999</v>
-      </c>
-      <c r="K101">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <v>0.14476</v>
+      </c>
+      <c r="O101">
+        <v>131</v>
+      </c>
+      <c r="U101" t="s">
+        <v>98</v>
+      </c>
+      <c r="V101">
+        <v>0.11813</v>
+      </c>
+      <c r="W101">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E102" t="s">
         <v>99</v>
       </c>
@@ -3246,17 +4598,26 @@
       <c r="G102">
         <v>2632</v>
       </c>
-      <c r="I102" t="s">
+      <c r="M102" t="s">
         <v>99</v>
       </c>
-      <c r="J102">
-        <v>0.22925000000000001</v>
-      </c>
-      <c r="K102">
-        <v>2738</v>
-      </c>
-    </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <v>0.35426000000000002</v>
+      </c>
+      <c r="O102">
+        <v>278</v>
+      </c>
+      <c r="U102" t="s">
+        <v>99</v>
+      </c>
+      <c r="V102">
+        <v>0.10588</v>
+      </c>
+      <c r="W102">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E103" t="s">
         <v>100</v>
       </c>
@@ -3266,17 +4627,26 @@
       <c r="G103">
         <v>24668</v>
       </c>
-      <c r="I103" t="s">
+      <c r="M103" t="s">
         <v>100</v>
       </c>
-      <c r="J103">
-        <v>0.83582999999999996</v>
-      </c>
-      <c r="K103">
-        <v>9531</v>
-      </c>
-    </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <v>8.4390000000000007E-2</v>
+      </c>
+      <c r="O103">
+        <v>89</v>
+      </c>
+      <c r="U103" t="s">
+        <v>100</v>
+      </c>
+      <c r="V103">
+        <v>0.13583999999999999</v>
+      </c>
+      <c r="W103">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E104" t="s">
         <v>101</v>
       </c>
@@ -3286,17 +4656,26 @@
       <c r="G104">
         <v>227</v>
       </c>
-      <c r="I104" t="s">
+      <c r="M104" t="s">
         <v>101</v>
       </c>
-      <c r="J104">
-        <v>4.9180000000000001E-2</v>
-      </c>
-      <c r="K104">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <v>3.8700000000000002E-3</v>
+      </c>
+      <c r="O104">
+        <v>4</v>
+      </c>
+      <c r="U104" t="s">
+        <v>101</v>
+      </c>
+      <c r="V104">
+        <v>5.3879999999999997E-2</v>
+      </c>
+      <c r="W104">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E105" t="s">
         <v>102</v>
       </c>
@@ -3306,17 +4685,26 @@
       <c r="G105">
         <v>923</v>
       </c>
-      <c r="I105" t="s">
+      <c r="M105" t="s">
         <v>102</v>
       </c>
-      <c r="J105">
-        <v>0.11441999999999999</v>
-      </c>
-      <c r="K105">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <v>4.437E-2</v>
+      </c>
+      <c r="O105">
+        <v>44</v>
+      </c>
+      <c r="U105" t="s">
+        <v>102</v>
+      </c>
+      <c r="V105">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="W105">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E106" t="s">
         <v>103</v>
       </c>
@@ -3326,17 +4714,26 @@
       <c r="G106">
         <v>62</v>
       </c>
-      <c r="I106" t="s">
+      <c r="M106" t="s">
         <v>103</v>
       </c>
-      <c r="J106">
-        <v>7.0200000000000002E-3</v>
-      </c>
-      <c r="K106">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <v>1.353E-2</v>
+      </c>
+      <c r="O106">
+        <v>12</v>
+      </c>
+      <c r="U106" t="s">
+        <v>103</v>
+      </c>
+      <c r="V106">
+        <v>3.6800000000000001E-3</v>
+      </c>
+      <c r="W106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E107" t="s">
         <v>104</v>
       </c>
@@ -3346,17 +4743,26 @@
       <c r="G107">
         <v>174</v>
       </c>
-      <c r="I107" t="s">
+      <c r="M107" t="s">
         <v>104</v>
       </c>
-      <c r="J107">
-        <v>1.941E-2</v>
-      </c>
-      <c r="K107">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <v>2.554E-2</v>
+      </c>
+      <c r="O107">
+        <v>22</v>
+      </c>
+      <c r="U107" t="s">
+        <v>104</v>
+      </c>
+      <c r="V107">
+        <v>8.5389999999999994E-2</v>
+      </c>
+      <c r="W107">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E108" t="s">
         <v>105</v>
       </c>
@@ -3366,17 +4772,26 @@
       <c r="G108">
         <v>189</v>
       </c>
-      <c r="I108" t="s">
+      <c r="M108" t="s">
         <v>105</v>
       </c>
-      <c r="J108">
-        <v>2.809E-2</v>
-      </c>
-      <c r="K108">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="O108">
+        <v>11</v>
+      </c>
+      <c r="U108" t="s">
+        <v>105</v>
+      </c>
+      <c r="V108">
+        <v>1.8159999999999999E-2</v>
+      </c>
+      <c r="W108">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E109" t="s">
         <v>106</v>
       </c>
@@ -3386,17 +4801,26 @@
       <c r="G109">
         <v>334</v>
       </c>
-      <c r="I109" t="s">
+      <c r="M109" t="s">
         <v>106</v>
       </c>
-      <c r="J109">
-        <v>1.196E-2</v>
-      </c>
-      <c r="K109">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <v>1.4409999999999999E-2</v>
+      </c>
+      <c r="O109">
+        <v>11</v>
+      </c>
+      <c r="U109" t="s">
+        <v>106</v>
+      </c>
+      <c r="V109">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="W109">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E110" t="s">
         <v>107</v>
       </c>
@@ -3406,17 +4830,26 @@
       <c r="G110">
         <v>849</v>
       </c>
-      <c r="I110" t="s">
+      <c r="M110" t="s">
         <v>107</v>
       </c>
-      <c r="J110">
-        <v>5.8110000000000002E-2</v>
-      </c>
-      <c r="K110">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="111" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <v>2.5819999999999999E-2</v>
+      </c>
+      <c r="O110">
+        <v>28</v>
+      </c>
+      <c r="U110" t="s">
+        <v>107</v>
+      </c>
+      <c r="V110">
+        <v>4.861E-2</v>
+      </c>
+      <c r="W110">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E111" t="s">
         <v>108</v>
       </c>
@@ -3426,17 +4859,26 @@
       <c r="G111">
         <v>61</v>
       </c>
-      <c r="I111" t="s">
+      <c r="M111" t="s">
         <v>108</v>
       </c>
-      <c r="J111">
-        <v>3.9910000000000001E-2</v>
-      </c>
-      <c r="K111">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="112" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <v>2.8459999999999999E-2</v>
+      </c>
+      <c r="O111">
+        <v>25</v>
+      </c>
+      <c r="U111" t="s">
+        <v>108</v>
+      </c>
+      <c r="V111">
+        <v>0.42625000000000002</v>
+      </c>
+      <c r="W111">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="112" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E112" t="s">
         <v>109</v>
       </c>
@@ -3446,17 +4888,26 @@
       <c r="G112">
         <v>186</v>
       </c>
-      <c r="I112" t="s">
+      <c r="M112" t="s">
         <v>109</v>
       </c>
-      <c r="J112">
-        <v>2.776E-2</v>
-      </c>
-      <c r="K112">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="113" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <v>2.3380000000000001E-2</v>
+      </c>
+      <c r="O112">
+        <v>19</v>
+      </c>
+      <c r="U112" t="s">
+        <v>109</v>
+      </c>
+      <c r="V112">
+        <v>3.2757299999999998</v>
+      </c>
+      <c r="W112">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="113" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E113" t="s">
         <v>110</v>
       </c>
@@ -3466,17 +4917,26 @@
       <c r="G113">
         <v>412</v>
       </c>
-      <c r="I113" t="s">
+      <c r="M113" t="s">
         <v>110</v>
       </c>
-      <c r="J113">
-        <v>0.1009</v>
-      </c>
-      <c r="K113">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="114" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <v>5.142E-2</v>
+      </c>
+      <c r="O113">
+        <v>39</v>
+      </c>
+      <c r="U113" t="s">
+        <v>110</v>
+      </c>
+      <c r="V113">
+        <v>0.13797999999999999</v>
+      </c>
+      <c r="W113">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E114" t="s">
         <v>111</v>
       </c>
@@ -3486,17 +4946,26 @@
       <c r="G114">
         <v>877</v>
       </c>
-      <c r="I114" t="s">
+      <c r="M114" t="s">
         <v>111</v>
       </c>
-      <c r="J114">
-        <v>3.5110000000000002E-2</v>
-      </c>
-      <c r="K114">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="115" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <v>5.6419999999999998E-2</v>
+      </c>
+      <c r="O114">
+        <v>53</v>
+      </c>
+      <c r="U114" t="s">
+        <v>111</v>
+      </c>
+      <c r="V114">
+        <v>3.0899999999999999E-3</v>
+      </c>
+      <c r="W114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E115" t="s">
         <v>112</v>
       </c>
@@ -3506,17 +4975,26 @@
       <c r="G115">
         <v>323</v>
       </c>
-      <c r="I115" t="s">
+      <c r="M115" t="s">
         <v>112</v>
       </c>
-      <c r="J115">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="K115">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <v>2.7869999999999999E-2</v>
+      </c>
+      <c r="O115">
+        <v>25</v>
+      </c>
+      <c r="U115" t="s">
+        <v>112</v>
+      </c>
+      <c r="V115">
+        <v>0.10226</v>
+      </c>
+      <c r="W115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E116" t="s">
         <v>113</v>
       </c>
@@ -3526,17 +5004,26 @@
       <c r="G116">
         <v>96</v>
       </c>
-      <c r="I116" t="s">
+      <c r="M116" t="s">
         <v>113</v>
       </c>
-      <c r="J116">
-        <v>0.10841000000000001</v>
-      </c>
-      <c r="K116">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="117" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <v>9.9610000000000004E-2</v>
+      </c>
+      <c r="O116">
+        <v>65</v>
+      </c>
+      <c r="U116" t="s">
+        <v>113</v>
+      </c>
+      <c r="V116">
+        <v>4.1680000000000002E-2</v>
+      </c>
+      <c r="W116">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E117" t="s">
         <v>114</v>
       </c>
@@ -3546,17 +5033,26 @@
       <c r="G117">
         <v>1582</v>
       </c>
-      <c r="I117" t="s">
+      <c r="M117" t="s">
         <v>114</v>
       </c>
-      <c r="J117">
-        <v>0.12279</v>
-      </c>
-      <c r="K117">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="118" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <v>7.0800000000000004E-3</v>
+      </c>
+      <c r="O117">
+        <v>7</v>
+      </c>
+      <c r="U117" t="s">
+        <v>114</v>
+      </c>
+      <c r="V117">
+        <v>5.8399999999999997E-3</v>
+      </c>
+      <c r="W117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E118" t="s">
         <v>115</v>
       </c>
@@ -3566,17 +5062,26 @@
       <c r="G118">
         <v>12</v>
       </c>
-      <c r="I118" t="s">
+      <c r="M118" t="s">
         <v>115</v>
       </c>
-      <c r="J118">
-        <v>6.2100000000000002E-3</v>
-      </c>
-      <c r="K118">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="119" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <v>5.5169999999999997E-2</v>
+      </c>
+      <c r="O118">
+        <v>46</v>
+      </c>
+      <c r="U118" t="s">
+        <v>115</v>
+      </c>
+      <c r="V118">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="W118">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E119" t="s">
         <v>116</v>
       </c>
@@ -3586,17 +5091,26 @@
       <c r="G119">
         <v>300</v>
       </c>
-      <c r="I119" t="s">
+      <c r="M119" t="s">
         <v>116</v>
       </c>
-      <c r="J119">
-        <v>3.7780000000000001E-2</v>
-      </c>
-      <c r="K119">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="120" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <v>4.3400000000000001E-3</v>
+      </c>
+      <c r="O119">
+        <v>4</v>
+      </c>
+      <c r="U119" t="s">
+        <v>116</v>
+      </c>
+      <c r="V119">
+        <v>6.6499999999999997E-3</v>
+      </c>
+      <c r="W119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E120" t="s">
         <v>117</v>
       </c>
@@ -3606,17 +5120,26 @@
       <c r="G120">
         <v>908</v>
       </c>
-      <c r="I120" t="s">
+      <c r="M120" t="s">
         <v>117</v>
       </c>
-      <c r="J120">
-        <v>0.10335</v>
-      </c>
-      <c r="K120">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="121" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <v>0.10807</v>
+      </c>
+      <c r="O120">
+        <v>94</v>
+      </c>
+      <c r="U120" t="s">
+        <v>117</v>
+      </c>
+      <c r="V120">
+        <v>5.8300000000000001E-3</v>
+      </c>
+      <c r="W120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E121" t="s">
         <v>118</v>
       </c>
@@ -3626,17 +5149,26 @@
       <c r="G121">
         <v>1645</v>
       </c>
-      <c r="I121" t="s">
+      <c r="M121" t="s">
         <v>118</v>
       </c>
-      <c r="J121">
-        <v>0.22706000000000001</v>
-      </c>
-      <c r="K121">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="122" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <v>1.405E-2</v>
+      </c>
+      <c r="O121">
+        <v>11</v>
+      </c>
+      <c r="U121" t="s">
+        <v>118</v>
+      </c>
+      <c r="V121">
+        <v>1.15E-2</v>
+      </c>
+      <c r="W121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E122" t="s">
         <v>119</v>
       </c>
@@ -3646,17 +5178,26 @@
       <c r="G122">
         <v>797</v>
       </c>
-      <c r="I122" t="s">
+      <c r="M122" t="s">
         <v>119</v>
       </c>
-      <c r="J122">
-        <v>0.10724</v>
-      </c>
-      <c r="K122">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="123" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <v>2.938E-2</v>
+      </c>
+      <c r="O122">
+        <v>28</v>
+      </c>
+      <c r="U122" t="s">
+        <v>119</v>
+      </c>
+      <c r="V122">
+        <v>7.6480000000000006E-2</v>
+      </c>
+      <c r="W122">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E123" t="s">
         <v>120</v>
       </c>
@@ -3666,17 +5207,26 @@
       <c r="G123">
         <v>1060</v>
       </c>
-      <c r="I123" t="s">
+      <c r="M123" t="s">
         <v>120</v>
       </c>
-      <c r="J123">
-        <v>9.9589999999999998E-2</v>
-      </c>
-      <c r="K123">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="124" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <v>2.3449999999999999E-2</v>
+      </c>
+      <c r="O123">
+        <v>19</v>
+      </c>
+      <c r="U123" t="s">
+        <v>120</v>
+      </c>
+      <c r="V123">
+        <v>7.6369999999999993E-2</v>
+      </c>
+      <c r="W123">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E124" t="s">
         <v>121</v>
       </c>
@@ -3686,17 +5236,26 @@
       <c r="G124">
         <v>2521</v>
       </c>
-      <c r="I124" t="s">
+      <c r="M124" t="s">
         <v>121</v>
       </c>
-      <c r="J124">
-        <v>0.15878999999999999</v>
-      </c>
-      <c r="K124">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="125" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <v>0.1608</v>
+      </c>
+      <c r="O124">
+        <v>130</v>
+      </c>
+      <c r="U124" t="s">
+        <v>121</v>
+      </c>
+      <c r="V124">
+        <v>0.12142</v>
+      </c>
+      <c r="W124">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E125" t="s">
         <v>122</v>
       </c>
@@ -3706,17 +5265,26 @@
       <c r="G125">
         <v>172</v>
       </c>
-      <c r="I125" t="s">
+      <c r="M125" t="s">
         <v>122</v>
       </c>
-      <c r="J125">
-        <v>1.38E-2</v>
-      </c>
-      <c r="K125">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="126" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <v>2.8889999999999999E-2</v>
+      </c>
+      <c r="O125">
+        <v>21</v>
+      </c>
+      <c r="U125" t="s">
+        <v>122</v>
+      </c>
+      <c r="V125">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="W125">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E126" t="s">
         <v>123</v>
       </c>
@@ -3726,17 +5294,26 @@
       <c r="G126">
         <v>136</v>
       </c>
-      <c r="I126" t="s">
+      <c r="M126" t="s">
         <v>123</v>
       </c>
-      <c r="J126">
-        <v>5.4080000000000003E-2</v>
-      </c>
-      <c r="K126">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="127" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <v>2.444E-2</v>
+      </c>
+      <c r="O126">
+        <v>17</v>
+      </c>
+      <c r="U126" t="s">
+        <v>123</v>
+      </c>
+      <c r="V126">
+        <v>3.9050000000000001E-2</v>
+      </c>
+      <c r="W126">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E127" t="s">
         <v>124</v>
       </c>
@@ -3746,17 +5323,26 @@
       <c r="G127">
         <v>16</v>
       </c>
-      <c r="I127" t="s">
+      <c r="M127" t="s">
         <v>124</v>
       </c>
-      <c r="J127">
-        <v>8.77E-3</v>
-      </c>
-      <c r="K127">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="128" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <v>5.1200000000000004E-3</v>
+      </c>
+      <c r="O127">
+        <v>5</v>
+      </c>
+      <c r="U127" t="s">
+        <v>124</v>
+      </c>
+      <c r="V127">
+        <v>8.1869999999999998E-2</v>
+      </c>
+      <c r="W127">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E128" t="s">
         <v>125</v>
       </c>
@@ -3766,17 +5352,26 @@
       <c r="G128">
         <v>10</v>
       </c>
-      <c r="I128" t="s">
+      <c r="M128" t="s">
         <v>125</v>
       </c>
-      <c r="J128">
-        <v>6.1700000000000001E-3</v>
-      </c>
-      <c r="K128">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <v>6.3400000000000001E-3</v>
+      </c>
+      <c r="O128">
+        <v>6</v>
+      </c>
+      <c r="U128" t="s">
+        <v>125</v>
+      </c>
+      <c r="V128">
+        <v>0.99184000000000005</v>
+      </c>
+      <c r="W128">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="129" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E129" t="s">
         <v>126</v>
       </c>
@@ -3786,17 +5381,26 @@
       <c r="G129">
         <v>484</v>
       </c>
-      <c r="I129" t="s">
+      <c r="M129" t="s">
         <v>126</v>
       </c>
-      <c r="J129">
-        <v>7.4599999999999996E-3</v>
-      </c>
-      <c r="K129">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <v>7.3800000000000003E-3</v>
+      </c>
+      <c r="O129">
+        <v>7</v>
+      </c>
+      <c r="U129" t="s">
+        <v>126</v>
+      </c>
+      <c r="V129">
+        <v>6.3479999999999995E-2</v>
+      </c>
+      <c r="W129">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E130" t="s">
         <v>127</v>
       </c>
@@ -3806,14 +5410,166 @@
       <c r="G130">
         <v>2033</v>
       </c>
-      <c r="I130" t="s">
+      <c r="M130" t="s">
         <v>127</v>
       </c>
-      <c r="J130">
-        <v>6.5460000000000004E-2</v>
-      </c>
-      <c r="K130">
-        <v>684</v>
+      <c r="N130">
+        <v>1.179E-2</v>
+      </c>
+      <c r="O130">
+        <v>9</v>
+      </c>
+      <c r="U130" t="s">
+        <v>127</v>
+      </c>
+      <c r="V130">
+        <v>0.15215999999999999</v>
+      </c>
+      <c r="W130">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U131" t="s">
+        <v>134</v>
+      </c>
+      <c r="V131">
+        <v>7.43E-3</v>
+      </c>
+      <c r="W131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U132" t="s">
+        <v>135</v>
+      </c>
+      <c r="V132">
+        <v>2.257E-2</v>
+      </c>
+      <c r="W132">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U133" t="s">
+        <v>136</v>
+      </c>
+      <c r="V133">
+        <v>4.1390000000000003E-2</v>
+      </c>
+      <c r="W133">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U134" t="s">
+        <v>137</v>
+      </c>
+      <c r="V134">
+        <v>2.6280000000000001E-2</v>
+      </c>
+      <c r="W134">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U135" t="s">
+        <v>138</v>
+      </c>
+      <c r="V135">
+        <v>0.26557999999999998</v>
+      </c>
+      <c r="W135">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="136" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U136" t="s">
+        <v>139</v>
+      </c>
+      <c r="V136">
+        <v>9.7300000000000008E-3</v>
+      </c>
+      <c r="W136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U137" t="s">
+        <v>140</v>
+      </c>
+      <c r="V137">
+        <v>0.20349</v>
+      </c>
+      <c r="W137">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U138" t="s">
+        <v>141</v>
+      </c>
+      <c r="V138">
+        <v>2.606E-2</v>
+      </c>
+      <c r="W138">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U139" t="s">
+        <v>142</v>
+      </c>
+      <c r="V139">
+        <v>5.9760000000000001E-2</v>
+      </c>
+      <c r="W139">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U140" t="s">
+        <v>143</v>
+      </c>
+      <c r="V140">
+        <v>2.435E-2</v>
+      </c>
+      <c r="W140">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U141" t="s">
+        <v>144</v>
+      </c>
+      <c r="V141">
+        <v>0.26290999999999998</v>
+      </c>
+      <c r="W141">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U142" t="s">
+        <v>145</v>
+      </c>
+      <c r="V142">
+        <v>4.122E-2</v>
+      </c>
+      <c r="W142">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U143" t="s">
+        <v>146</v>
+      </c>
+      <c r="V143">
+        <v>1.0670000000000001E-2</v>
+      </c>
+      <c r="W143">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/sudoku Q1.xlsx
+++ b/sudoku Q1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="840" windowWidth="16860" windowHeight="13620"/>
+    <workbookView xWindow="11940" yWindow="960" windowWidth="16860" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,10 +480,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,8 +522,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -515,7 +535,11 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -817,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -835,9 +859,13 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <f>SUM(B3:B127)</f>
+        <v>13.782119999999999</v>
+      </c>
       <c r="C2">
-        <f>SUM(B:B)</f>
-        <v>13.782119999999999</v>
+        <f>SUM(C3:C117)</f>
+        <v>869841</v>
       </c>
       <c r="E2" t="s">
         <v>130</v>
